--- a/check-list_001.xlsx
+++ b/check-list_001.xlsx
@@ -16,113 +16,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Проверка</t>
   </si>
   <si>
-    <t>Окружение</t>
-  </si>
-  <si>
-    <t>Результат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комментарий </t>
-  </si>
-  <si>
     <t>Заполнение обязательных полей:</t>
   </si>
   <si>
-    <t>"Наименование" - не заполнено. "Адрес" -  заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено. "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено. "Адрес"- не заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - не заполнено. "Адрес" - не заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено. "Адрес" - заполнено. "Отменить" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - не заполнено. "Адрес" -  заполнено.  "Отменить" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено. "Адрес"- не заполнено.  "Отменить" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - не заполнено. "Адрес" - не заполнено. "Отменить" - кнопка нажата.</t>
-  </si>
-  <si>
     <t>Открытие/закрытие формы "Новая точка подключения клиента"</t>
   </si>
   <si>
-    <t>"Наименование" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в начале строки. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в середине строки. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в конце строки. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено, введен один символ. "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено, введено максимальное количество символов. "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено, введено граничное значение символов "-1". "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено, введено граничное значение символов "+1". "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
     <t>Заполнение необязательных полей (обязательные поля заполнены):</t>
   </si>
   <si>
-    <t>"Описание" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание" - заполнено, введено максимальное количество символов. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание" - заполнено, введен один символ. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание" - заполнено, введено граничное значение символов "-1". "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание" - заполнено, введено граничное значение символов "+1". "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в начале строки. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в середине строки. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в конце строки. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание" - заполнено, сочетанием "Ctrl+C" и "Ctrl+V". "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено: раскладка RU. "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено: раскладка ENG. "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено: символы и ENG и RU раскладок введены совместно. "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено: сочетанием "Ctrl+C" и "Ctrl+V". "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
     <t>"Наименование" - заполнено. "Адрес": ввод пробела/пробелов в начале строки.</t>
   </si>
   <si>
@@ -141,57 +48,18 @@
     <t>"Наименование" - заполнено. "Адрес": начать ввод с цифры.</t>
   </si>
   <si>
-    <t>"Наименование" - заполнено. "Адрес" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в начале строки. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено. "Адрес" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в середине строки. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено. "Адрес" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в конце строки. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
     <t>"Наименование" - заполнено. "Адрес": ввод пробела/пробелов в конце строки.</t>
   </si>
   <si>
-    <t>"Наименование" - заполнено. "Адрес" - заполнено. "Добавить" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено. "Адрес" - не заполнено. "Добавить" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание"  - заполнено: раскладка RU. "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание"  - заполнено: раскладка ENG. "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание"  - заполнено: символы и ENG и RU раскладок введены совместно. "Адрес" - заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
     <t>"Описание"  - заполнено: размер поля увеличен.</t>
   </si>
   <si>
     <t>"Описание"  - не заполнено: размер поля увеличен.</t>
   </si>
   <si>
-    <t>"Наименование" - заполнено. "Адрес" - заполнено. Всплывающая подсказка отбражается при наведении на адрес в списке "dropdown".</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено. "Адрес" - заполнено. Выбор только одного адреса из списка "dropdown".</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено. "Адрес" - заполнено. Раскрыт "dropdown" список адресов.</t>
-  </si>
-  <si>
     <t>"Наименование" - заполнено. "Адрес" - заполнено. Проверить перемещение "scroll" в списке "dropdown".</t>
   </si>
   <si>
-    <t>"Описание" - заполнено: ввод пробела/пробелов в начале строки. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>"Описание" - заполнено: ввод пробела/пробелов в конце строки. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Наименование" - заполнено. "Адрес" - заполнено: введено 3 символа. Список "dropdown" отображает адрес. </t>
   </si>
   <si>
@@ -201,46 +69,175 @@
     <t xml:space="preserve">"Наименование" - заполнено. "Адрес" - заполнено: введено 4 символа. Список "dropdown" отображает адрес. </t>
   </si>
   <si>
-    <t>"Время": заполнено. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
-    <t>Обязательные поля заполнены. Форма закрыта и открыта повторно. Данные сохранены. Форма пуста.</t>
-  </si>
-  <si>
-    <t>Обязательные поля не заполнены. Необязательные поля заполнены. Форма закрыта и открыта повторно. Форма пуста.</t>
-  </si>
-  <si>
-    <t>"Время": заполнено: с 00:00 Пн  до 00:00 Пн. "Создать" - кнопка нажата. Отображается ошибка выбора времени.</t>
-  </si>
-  <si>
-    <t>"Наименование" - заполнено. "Адрес" - не заполнено. Раскрыт "dropdown" список адресов кликом мыши в поле ввода "select".</t>
-  </si>
-  <si>
-    <t>"Время": заполнено. Выбор только одного значения "HH" в списке "dropdown".</t>
-  </si>
-  <si>
-    <t>"Время": заполнено. Выбор только одного значения "MM" в списке "dropdown".</t>
-  </si>
-  <si>
-    <t>"Время": заполнено. Выбор только одного значения "DD" в списке "dropdown".</t>
-  </si>
-  <si>
     <t>"Время": заполнено. Проверить перемещение "scroll" в списке"HH"  "dropdown".</t>
   </si>
   <si>
     <t>"Время": заполнено. Проверить перемещение "scroll" в списке"MM"  "dropdown".</t>
   </si>
   <si>
-    <t>Форма открыта. Поля не заполнены. "Создать" - кнопка нажата. Выведена ошибка заполнения обязательных полей.</t>
-  </si>
-  <si>
     <t>Форма открыта. Поля не заполнены. "Отменить" - кнопка нажата. Форма закрыта.</t>
   </si>
   <si>
-    <t>"Наименование" - заполнено: Тестовое задание. "Адрес" - заполнено: Захарова ул 1 д, Пенза г, Пензенская обл, Россия. "Создать" - кнопка нажата.</t>
-  </si>
-  <si>
     <t>Автозаполнение полей: "Объект размещения" и "Схема подключения"</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>CL-0401</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено, введен один символ. "Адрес" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено, введено максимальное количество символов. "Адрес" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено, введено граничное значение символов "-1". "Адрес" - заполнено.Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено, введено граничное значение символов "+1". "Адрес" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - не заполнено. "Адрес" -  заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес"- не заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - не заполнено. "Адрес" - не заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в начале строки. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в середине строки. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в конце строки. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено: раскладка RU. "Адрес" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено: раскладка ENG. "Адрес" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено: символы и ENG и RU раскладок введены совместно. "Адрес" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено: сочетанием "Ctrl+C" и "Ctrl+V". "Адрес" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в начале строки. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в середине строки. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в конце строки. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание" - заполнено, введено максимальное количество символов. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание" - заполнено, введен один символ. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание" - заполнено, введено граничное значение символов "-1". Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание" - заполнено, введено граничное значение символов "+1". Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание" - заполнено, сочетанием "Ctrl+C" и "Ctrl+V". Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в начале строки. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в середине строки. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание" - заполнено: символы &amp;, %, @, \n, _ , &lt;/&gt;, {},[] в конце строки. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание"  - заполнено: раскладка RU. "Адрес" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание"  - заполнено: раскладка ENG. "Адрес" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание"  - заполнено: символы и ENG и RU раскладок введены совместно. "Адрес" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание" - заполнено: ввод пробела/пробелов в начале строки. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Описание" - заполнено: ввод пробела/пробелов в конце строки. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Время": заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Время": заполнено: с 00:00 Пн  до 00:00 Пн. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено: Тестовое задание. "Адрес" - заполнено: Захарова ул 1 д, Пенза г, Пензенская обл, Россия. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>Форма открыта. Поля не заполнены. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>Обязательные поля заполнены. Форму закрыть и открыть повторно.</t>
+  </si>
+  <si>
+    <t>Обязательные поля не заполнены. Необязательные поля заполнены. Форму закрыть и открыть повторно.</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес" - заполнено. Нажать кнопку "Отменить".</t>
+  </si>
+  <si>
+    <t>"Наименование" - не заполнено. "Адрес" -  заполнено.  Нажать кнопку "Отменить".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес"- не заполнено. Нажать кнопку "Отменить".</t>
+  </si>
+  <si>
+    <t>"Наименование" - не заполнено. "Адрес" - не заполнено. Нажать кнопку "Отменить".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес" - заполнено. Нажать кнопку "Добавить".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес" - не заполнено. Нажать кнопку "Добавить".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес" - не заполнено. Раскрыть "dropdown" список адресов кликом мыши в поле ввода "select".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес" - заполнено. Раскрыть "dropdown" список адресов.</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес" - заполнено. Выбрать только один адрес из списка "dropdown".</t>
+  </si>
+  <si>
+    <t>"Наименование" - заполнено. "Адрес" - заполнено. Всплывающую подсказку отбразить наведением курсора на адрес в списке "dropdown".</t>
+  </si>
+  <si>
+    <t>"Описание" - заполнено. Нажать кнопку "Создать".</t>
+  </si>
+  <si>
+    <t>"Время": заполнено. Выбрать только одно значение "HH" в списке "dropdown".</t>
+  </si>
+  <si>
+    <t>"Время": заполнено. Выбрать только одно значение "MM" в списке "dropdown".</t>
+  </si>
+  <si>
+    <t>"Время": заполнено. Выбрать только одно значение "DD" в списке "dropdown".</t>
   </si>
 </sst>
 </file>
@@ -336,7 +333,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,6 +350,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Акцент1" xfId="2" builtinId="30"/>
@@ -649,400 +647,387 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="150.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1">
+    <row r="1" spans="1:2" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" s="7" customFormat="1">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="7" customFormat="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="B4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="B6" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="7" customFormat="1">
-      <c r="A8" s="6"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="7" customFormat="1">
+      <c r="A8" s="8"/>
       <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="4" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="4" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="4" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="4" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" s="4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" s="4" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="4" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="4" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="4" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="4" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="7" customFormat="1">
-      <c r="A49" s="6"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="7" customFormat="1">
+      <c r="A49" s="8"/>
       <c r="B49" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="B50" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="B51" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="B52" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="B53" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="B54" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="B55" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="B56" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="B57" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="B58" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="B59" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="B60" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="B61" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="B62" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="B63" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="B64" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="B65" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="B66" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="B67" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="B68" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="B69" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="B70" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="B71" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="7" customFormat="1">
+      <c r="A74" s="8"/>
+      <c r="B74" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="B75" s="3" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="B65" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="B66" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="B67" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="B68" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="B69" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="B70" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="B71" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="B72" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="7" customFormat="1">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="B75" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/check-list_001.xlsx
+++ b/check-list_001.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Проверка</t>
   </si>
@@ -75,9 +75,6 @@
     <t>"Время": заполнено. Проверить перемещение "scroll" в списке"MM"  "dropdown".</t>
   </si>
   <si>
-    <t>Форма открыта. Поля не заполнены. "Отменить" - кнопка нажата. Форма закрыта.</t>
-  </si>
-  <si>
     <t>Автозаполнение полей: "Объект размещения" и "Схема подключения"</t>
   </si>
   <si>
@@ -238,6 +235,207 @@
   </si>
   <si>
     <t>"Время": заполнено. Выбрать только одно значение "DD" в списке "dropdown".</t>
+  </si>
+  <si>
+    <t>CL-0402</t>
+  </si>
+  <si>
+    <t>CL-0403</t>
+  </si>
+  <si>
+    <t>CL-0404</t>
+  </si>
+  <si>
+    <t>CL-0405</t>
+  </si>
+  <si>
+    <t>CL-0406</t>
+  </si>
+  <si>
+    <t>CL-0407</t>
+  </si>
+  <si>
+    <t>CL-0408</t>
+  </si>
+  <si>
+    <t>CL-0409</t>
+  </si>
+  <si>
+    <t>CL-0410</t>
+  </si>
+  <si>
+    <t>CL-0411</t>
+  </si>
+  <si>
+    <t>CL-0412</t>
+  </si>
+  <si>
+    <t>CL-0413</t>
+  </si>
+  <si>
+    <t>CL-0414</t>
+  </si>
+  <si>
+    <t>CL-0415</t>
+  </si>
+  <si>
+    <t>CL-0416</t>
+  </si>
+  <si>
+    <t>CL-0417</t>
+  </si>
+  <si>
+    <t>CL-0418</t>
+  </si>
+  <si>
+    <t>CL-0419</t>
+  </si>
+  <si>
+    <t>CL-0420</t>
+  </si>
+  <si>
+    <t>CL-0421</t>
+  </si>
+  <si>
+    <t>CL-0422</t>
+  </si>
+  <si>
+    <t>CL-0423</t>
+  </si>
+  <si>
+    <t>CL-0424</t>
+  </si>
+  <si>
+    <t>CL-0425</t>
+  </si>
+  <si>
+    <t>CL-0426</t>
+  </si>
+  <si>
+    <t>CL-0427</t>
+  </si>
+  <si>
+    <t>CL-0428</t>
+  </si>
+  <si>
+    <t>CL-0429</t>
+  </si>
+  <si>
+    <t>CL-0430</t>
+  </si>
+  <si>
+    <t>CL-0431</t>
+  </si>
+  <si>
+    <t>CL-0432</t>
+  </si>
+  <si>
+    <t>CL-0433</t>
+  </si>
+  <si>
+    <t>CL-0434</t>
+  </si>
+  <si>
+    <t>CL-0435</t>
+  </si>
+  <si>
+    <t>CL-0436</t>
+  </si>
+  <si>
+    <t>CL-0437</t>
+  </si>
+  <si>
+    <t>CL-0438</t>
+  </si>
+  <si>
+    <t>CL-0439</t>
+  </si>
+  <si>
+    <t>CL-0440</t>
+  </si>
+  <si>
+    <t>CL-0441</t>
+  </si>
+  <si>
+    <t>CL-0442</t>
+  </si>
+  <si>
+    <t>CL-0443</t>
+  </si>
+  <si>
+    <t>CL-0444</t>
+  </si>
+  <si>
+    <t>CL-0445</t>
+  </si>
+  <si>
+    <t>CL-0446</t>
+  </si>
+  <si>
+    <t>CL-0447</t>
+  </si>
+  <si>
+    <t>CL-0448</t>
+  </si>
+  <si>
+    <t>CL-0449</t>
+  </si>
+  <si>
+    <t>CL-0450</t>
+  </si>
+  <si>
+    <t>CL-0451</t>
+  </si>
+  <si>
+    <t>CL-0452</t>
+  </si>
+  <si>
+    <t>CL-0453</t>
+  </si>
+  <si>
+    <t>CL-0454</t>
+  </si>
+  <si>
+    <t>CL-0455</t>
+  </si>
+  <si>
+    <t>CL-0456</t>
+  </si>
+  <si>
+    <t>CL-0457</t>
+  </si>
+  <si>
+    <t>CL-0458</t>
+  </si>
+  <si>
+    <t>CL-0459</t>
+  </si>
+  <si>
+    <t>CL-0460</t>
+  </si>
+  <si>
+    <t>CL-0461</t>
+  </si>
+  <si>
+    <t>CL-0462</t>
+  </si>
+  <si>
+    <t>CL-0463</t>
+  </si>
+  <si>
+    <t>CL-0464</t>
+  </si>
+  <si>
+    <t>CL-0465</t>
+  </si>
+  <si>
+    <t>CL-0466</t>
+  </si>
+  <si>
+    <t>CL-0467</t>
+  </si>
+  <si>
+    <t>Форма открыта. Поля не заполнены. Нажать кнопку "Создать". Форму закрыть.</t>
   </si>
 </sst>
 </file>
@@ -649,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -662,7 +860,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="25.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -676,25 +874,34 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="7" customFormat="1">
@@ -704,196 +911,313 @@
       </c>
     </row>
     <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="3" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="4" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="4" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="B29" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="B30" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="B34" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="5" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="B37" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="B38" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="4" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="4" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="4" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="B44" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="B45" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="B46" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="B47" s="4" t="s">
         <v>16</v>
       </c>
@@ -905,116 +1229,185 @@
       </c>
     </row>
     <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="B50" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:2">
+      <c r="A51" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="B51" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="B52" s="4" t="s">
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="B53" s="4" t="s">
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="B54" s="4" t="s">
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="B55" s="4" t="s">
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="B56" s="4" t="s">
+    <row r="57" spans="1:2">
+      <c r="A57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="B57" s="4" t="s">
+    <row r="58" spans="1:2">
+      <c r="A58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="B58" s="4" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="B59" s="4" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="B60" s="4" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="B61" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="62" spans="1:2">
+      <c r="A62" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="B62" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:2">
+      <c r="A63" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="B63" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="B64" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="B65" s="4" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="B66" s="4" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="B67" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="B68" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="B69" s="3" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="B70" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="B71" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:2">
+      <c r="A72" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="B72" s="3" t="s">
         <v>18</v>
       </c>
@@ -1022,12 +1415,15 @@
     <row r="74" spans="1:2" s="7" customFormat="1">
       <c r="A74" s="8"/>
       <c r="B74" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:2">
+      <c r="A75" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="B75" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
